--- a/results/by_outcome/full_results_education_PGI_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.591627376357661</v>
+        <v>0.58841232396507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.276189284272197</v>
+        <v>0.280826277319723</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.408427527801694</v>
+        <v>0.411640923743397</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.605658167141403</v>
+        <v>0.603730324507612</v>
       </c>
       <c r="G3" t="n">
-        <v>0.310021511760123</v>
+        <v>0.311559776320818</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637296984495934</v>
+        <v>0.637358737239101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362795826096782</v>
+        <v>0.362731764845503</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009281059272</v>
+        <v>1.0000905020846</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362762157879051</v>
+        <v>0.362698939830343</v>
       </c>
       <c r="K4" t="n">
-        <v>0.309992741140584</v>
+        <v>0.311531582060349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0140294886933653</v>
+        <v>0.0153166143440778</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0456653699226428</v>
+        <v>0.0489419839130541</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324022229833949</v>
+        <v>0.326848196404427</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362762157879051</v>
+        <v>0.362698939830343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.326483001021517</v>
+        <v>0.331220133480282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.399041314736586</v>
+        <v>0.394177746180405</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.324022229833949</v>
+        <v>0.326848196404427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.287534529784157</v>
+        <v>0.297364592378915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.360509929883741</v>
+        <v>0.356331800429939</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.408427527801694</v>
+        <v>0.411640923743397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.371119400563851</v>
+        <v>0.380403652512811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.445735655039537</v>
+        <v>0.442878194973983</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.58841232396507</v>
+        <v>0.589155258229011</v>
       </c>
       <c r="I2" t="n">
-        <v>0.280826277319723</v>
+        <v>0.279370328170232</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.411640923743397</v>
+        <v>0.410898045795768</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603730324507612</v>
+        <v>0.603924329216196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.311559776320818</v>
+        <v>0.311741230630201</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637358737239101</v>
+        <v>0.63758128463405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362731764845503</v>
+        <v>0.362509198923953</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0000905020846</v>
+        <v>1.000090483558</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362698939830343</v>
+        <v>0.362476400765031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.311531582060349</v>
+        <v>0.31171302572226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0153166143440778</v>
+        <v>0.0147677347384245</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0489419839130541</v>
+        <v>0.0484216450307373</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326848196404427</v>
+        <v>0.326480760460685</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362698939830343</v>
+        <v>0.362476400765031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331220133480282</v>
+        <v>0.333980048443841</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394177746180405</v>
+        <v>0.390972753086221</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.326848196404427</v>
+        <v>0.326480760460685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.297364592378915</v>
+        <v>0.299440473577494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.356331800429939</v>
+        <v>0.353521047343875</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411640923743397</v>
+        <v>0.410898045795768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.380403652512811</v>
+        <v>0.380231140088459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.442878194973983</v>
+        <v>0.441564951503078</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.589155258229011</v>
+        <v>0.588632892052824</v>
       </c>
       <c r="I2" t="n">
-        <v>0.279370328170232</v>
+        <v>0.28042484297219</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.410898045795768</v>
+        <v>0.411420401256562</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603924329216196</v>
+        <v>0.603695825461784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.311741230630201</v>
+        <v>0.312032917347289</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63758128463405</v>
+        <v>0.637314387588559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362509198923953</v>
+        <v>0.362776158086459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.000090483558</v>
+        <v>1.00009054567502</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362476400765031</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.31171302572226</v>
+        <v>0.312004666656564</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0147677347384245</v>
+        <v>0.0150615696308235</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0484216450307373</v>
+        <v>0.0486770880266578</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326480760460685</v>
+        <v>0.327066236287387</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362476400765031</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.333980048443841</v>
+        <v>0.331492816698077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.390972753086221</v>
+        <v>0.393993809761731</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.326480760460685</v>
+        <v>0.327066236287387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.299440473577494</v>
+        <v>0.297194139215492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.353521047343875</v>
+        <v>0.356938333359282</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410898045795768</v>
+        <v>0.411420401256562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.380231140088459</v>
+        <v>0.38117090248048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.441564951503078</v>
+        <v>0.441669900032643</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.588632892052824</v>
+        <v>0.588632893886752</v>
       </c>
       <c r="I2" t="n">
-        <v>0.28042484297219</v>
+        <v>0.280424840282137</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.411420401256562</v>
+        <v>0.411420399254511</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603695825461784</v>
+        <v>0.603695821177166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.312032917347289</v>
+        <v>0.312032923855807</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637314387588559</v>
+        <v>0.637314388090011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362776158086459</v>
+        <v>0.362776157299309</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009054567502</v>
+        <v>1.00009054538932</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362743313229904</v>
+        <v>0.362743312546454</v>
       </c>
       <c r="K4" t="n">
-        <v>0.312004666656564</v>
+        <v>0.312004673253624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0150615696308235</v>
+        <v>0.0150615635169828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0486770880266578</v>
+        <v>0.0486770867080569</v>
       </c>
       <c r="N4" t="n">
-        <v>0.327066236287387</v>
+        <v>0.327066236770606</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362743313229904</v>
+        <v>0.362743312546454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331492816698077</v>
+        <v>0.331142391910334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.393993809761731</v>
+        <v>0.394344233182575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000432496315594248</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327066236287387</v>
+        <v>0.327066236770606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.297194139215492</v>
+        <v>0.297643266620696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.356938333359282</v>
+        <v>0.356489206920517</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000340427468125119</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411420401256562</v>
+        <v>0.411420399254511</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38117090248048</v>
+        <v>0.381039129256622</v>
       </c>
       <c r="E4" t="n">
-        <v>0.441669900032643</v>
+        <v>0.441801669252401</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000376671900874958</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0843541624839051</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0700485577233521</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0986597672444581</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000000000000000000000000000000679979990785051</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_PGI_MI.xlsx
+++ b/results/by_outcome/full_results_education_PGI_MI.xlsx
@@ -489,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.588632893886752</v>
+        <v>0.588632892052824</v>
       </c>
       <c r="I2" t="n">
-        <v>0.280424840282137</v>
+        <v>0.28042484297219</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -510,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.411420399254511</v>
+        <v>0.411420401256562</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603695821177166</v>
+        <v>0.603695825461784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.312032923855807</v>
+        <v>0.312032917347289</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -568,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637314388090011</v>
+        <v>0.637314387588559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362776157299309</v>
+        <v>0.362776158086459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009054538932</v>
+        <v>1.00009054567502</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -589,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362743312546454</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.312004673253624</v>
+        <v>0.312004666656564</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0150615635169828</v>
+        <v>0.0150615696308235</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0486770867080569</v>
+        <v>0.0486770880266578</v>
       </c>
       <c r="N4" t="n">
-        <v>0.327066236770606</v>
+        <v>0.327066236287387</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -649,16 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362743312546454</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331142391910334</v>
+        <v>0.331497347395585</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394344233182575</v>
+        <v>0.393989279064224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000432496315594248</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000131735169066058</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327066236770606</v>
+        <v>0.327066236287387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.297643266620696</v>
+        <v>0.296998994937347</v>
       </c>
       <c r="E3" t="n">
-        <v>0.356489206920517</v>
+        <v>0.357133477637428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000340427468125119</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000802538121845811</v>
       </c>
     </row>
     <row r="4">
@@ -689,16 +689,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411420399254511</v>
+        <v>0.411420401256562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.381039129256622</v>
+        <v>0.380996347627972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.441801669252401</v>
+        <v>0.441844454885152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000376671900874958</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101324482959657</v>
       </c>
     </row>
     <row r="5">
@@ -709,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0843541624839051</v>
+        <v>0.0843541649691749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0700485577233521</v>
+        <v>0.0697809421823482</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0986597672444581</v>
+        <v>0.0989273877560016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000000000000000000000000000000679979990785051</v>
+        <v>0.00000000000000000000000000000786771784063808</v>
       </c>
     </row>
   </sheetData>
